--- a/uploads/processed.xlsx
+++ b/uploads/processed.xlsx
@@ -18,8 +18,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="165" formatCode="yyyy/m/d"/>
-    <numFmt numFmtId="166" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -62,7 +62,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -71,6 +71,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -437,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,15 +594,15 @@
       <c r="O2" t="n">
         <v>30</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="6">
         <f>J2-M2</f>
         <v/>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="6">
         <f>J2-N2</f>
         <v/>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="6">
         <f>J2-O2</f>
         <v/>
       </c>
@@ -662,15 +663,15 @@
       <c r="O3" t="n">
         <v>30</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="6">
         <f>J3-M3</f>
         <v/>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="6">
         <f>J3-N3</f>
         <v/>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="6">
         <f>J3-O3</f>
         <v/>
       </c>
@@ -734,15 +735,15 @@
       <c r="O4" t="n">
         <v>30</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="6">
         <f>J4-M4</f>
         <v/>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="6">
         <f>J4-N4</f>
         <v/>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="6">
         <f>J4-O4</f>
         <v/>
       </c>
@@ -803,15 +804,15 @@
       <c r="O5" t="n">
         <v>30</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="6">
         <f>J5-M5</f>
         <v/>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="6">
         <f>J5-N5</f>
         <v/>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="6">
         <f>J5-O5</f>
         <v/>
       </c>
@@ -875,15 +876,15 @@
       <c r="O6" t="n">
         <v>30</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="6">
         <f>J6-M6</f>
         <v/>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="6">
         <f>J6-N6</f>
         <v/>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="6">
         <f>J6-O6</f>
         <v/>
       </c>
@@ -947,15 +948,15 @@
       <c r="O7" t="n">
         <v>30</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="6">
         <f>J7-M7</f>
         <v/>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="6">
         <f>J7-N7</f>
         <v/>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="6">
         <f>J7-O7</f>
         <v/>
       </c>
@@ -1019,15 +1020,15 @@
       <c r="O8" t="n">
         <v>30</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="6">
         <f>J8-M8</f>
         <v/>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="6">
         <f>J8-N8</f>
         <v/>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="6">
         <f>J8-O8</f>
         <v/>
       </c>
@@ -1091,15 +1092,15 @@
       <c r="O9" t="n">
         <v>30</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="6">
         <f>J9-M9</f>
         <v/>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="6">
         <f>J9-N9</f>
         <v/>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="6">
         <f>J9-O9</f>
         <v/>
       </c>
@@ -1163,15 +1164,15 @@
       <c r="O10" t="n">
         <v>30</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="6">
         <f>J10-M10</f>
         <v/>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="6">
         <f>J10-N10</f>
         <v/>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="6">
         <f>J10-O10</f>
         <v/>
       </c>
@@ -1235,15 +1236,15 @@
       <c r="O11" t="n">
         <v>30</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="6">
         <f>J11-M11</f>
         <v/>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="6">
         <f>J11-N11</f>
         <v/>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="6">
         <f>J11-O11</f>
         <v/>
       </c>
@@ -1307,15 +1308,15 @@
       <c r="O12" t="n">
         <v>30</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="6">
         <f>J12-M12</f>
         <v/>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="6">
         <f>J12-N12</f>
         <v/>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="6">
         <f>J12-O12</f>
         <v/>
       </c>
@@ -1379,15 +1380,15 @@
       <c r="O13" t="n">
         <v>30</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="6">
         <f>J13-M13</f>
         <v/>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="6">
         <f>J13-N13</f>
         <v/>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="6">
         <f>J13-O13</f>
         <v/>
       </c>
@@ -1451,15 +1452,15 @@
       <c r="O14" t="n">
         <v>30</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="6">
         <f>J14-M14</f>
         <v/>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="6">
         <f>J14-N14</f>
         <v/>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="6">
         <f>J14-O14</f>
         <v/>
       </c>
@@ -1523,15 +1524,15 @@
       <c r="O15" t="n">
         <v>30</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="6">
         <f>J15-M15</f>
         <v/>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="6">
         <f>J15-N15</f>
         <v/>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="6">
         <f>J15-O15</f>
         <v/>
       </c>
@@ -1595,15 +1596,15 @@
       <c r="O16" t="n">
         <v>30</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="6">
         <f>J16-M16</f>
         <v/>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="6">
         <f>J16-N16</f>
         <v/>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="6">
         <f>J16-O16</f>
         <v/>
       </c>
@@ -1667,15 +1668,15 @@
       <c r="O17" t="n">
         <v>30</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="6">
         <f>J17-M17</f>
         <v/>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="6">
         <f>J17-N17</f>
         <v/>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="6">
         <f>J17-O17</f>
         <v/>
       </c>
@@ -1739,15 +1740,15 @@
       <c r="O18" t="n">
         <v>30</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="6">
         <f>J18-M18</f>
         <v/>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="6">
         <f>J18-N18</f>
         <v/>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="6">
         <f>J18-O18</f>
         <v/>
       </c>
@@ -1811,15 +1812,15 @@
       <c r="O19" t="n">
         <v>30</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="6">
         <f>J19-M19</f>
         <v/>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="6">
         <f>J19-N19</f>
         <v/>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="6">
         <f>J19-O19</f>
         <v/>
       </c>
@@ -1883,15 +1884,15 @@
       <c r="O20" t="n">
         <v>30</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="6">
         <f>J20-M20</f>
         <v/>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="6">
         <f>J20-N20</f>
         <v/>
       </c>
-      <c r="R20" s="4">
+      <c r="R20" s="6">
         <f>J20-O20</f>
         <v/>
       </c>
@@ -1955,15 +1956,15 @@
       <c r="O21" t="n">
         <v>30</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="6">
         <f>J21-M21</f>
         <v/>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="6">
         <f>J21-N21</f>
         <v/>
       </c>
-      <c r="R21" s="4">
+      <c r="R21" s="6">
         <f>J21-O21</f>
         <v/>
       </c>
@@ -2027,15 +2028,15 @@
       <c r="O22" t="n">
         <v>30</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="6">
         <f>J22-M22</f>
         <v/>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="6">
         <f>J22-N22</f>
         <v/>
       </c>
-      <c r="R22" s="4">
+      <c r="R22" s="6">
         <f>J22-O22</f>
         <v/>
       </c>
@@ -2099,15 +2100,15 @@
       <c r="O23" t="n">
         <v>30</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="6">
         <f>J23-M23</f>
         <v/>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="6">
         <f>J23-N23</f>
         <v/>
       </c>
-      <c r="R23" s="4">
+      <c r="R23" s="6">
         <f>J23-O23</f>
         <v/>
       </c>
@@ -2171,15 +2172,15 @@
       <c r="O24" t="n">
         <v>30</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="6">
         <f>J24-M24</f>
         <v/>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="6">
         <f>J24-N24</f>
         <v/>
       </c>
-      <c r="R24" s="4">
+      <c r="R24" s="6">
         <f>J24-O24</f>
         <v/>
       </c>
@@ -2243,15 +2244,15 @@
       <c r="O25" t="n">
         <v>30</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="6">
         <f>J25-M25</f>
         <v/>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="6">
         <f>J25-N25</f>
         <v/>
       </c>
-      <c r="R25" s="4">
+      <c r="R25" s="6">
         <f>J25-O25</f>
         <v/>
       </c>
@@ -2315,15 +2316,15 @@
       <c r="O26" t="n">
         <v>30</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="6">
         <f>J26-M26</f>
         <v/>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26" s="6">
         <f>J26-N26</f>
         <v/>
       </c>
-      <c r="R26" s="4">
+      <c r="R26" s="6">
         <f>J26-O26</f>
         <v/>
       </c>
@@ -2387,15 +2388,15 @@
       <c r="O27" t="n">
         <v>30</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P27" s="6">
         <f>J27-M27</f>
         <v/>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q27" s="6">
         <f>J27-N27</f>
         <v/>
       </c>
-      <c r="R27" s="4">
+      <c r="R27" s="6">
         <f>J27-O27</f>
         <v/>
       </c>
@@ -2459,15 +2460,15 @@
       <c r="O28" t="n">
         <v>30</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="6">
         <f>J28-M28</f>
         <v/>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28" s="6">
         <f>J28-N28</f>
         <v/>
       </c>
-      <c r="R28" s="4">
+      <c r="R28" s="6">
         <f>J28-O28</f>
         <v/>
       </c>
@@ -2531,15 +2532,15 @@
       <c r="O29" t="n">
         <v>30</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="6">
         <f>J29-M29</f>
         <v/>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q29" s="6">
         <f>J29-N29</f>
         <v/>
       </c>
-      <c r="R29" s="4">
+      <c r="R29" s="6">
         <f>J29-O29</f>
         <v/>
       </c>
@@ -2603,15 +2604,15 @@
       <c r="O30" t="n">
         <v>30</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="6">
         <f>J30-M30</f>
         <v/>
       </c>
-      <c r="Q30" s="4">
+      <c r="Q30" s="6">
         <f>J30-N30</f>
         <v/>
       </c>
-      <c r="R30" s="4">
+      <c r="R30" s="6">
         <f>J30-O30</f>
         <v/>
       </c>
@@ -2675,15 +2676,15 @@
       <c r="O31" t="n">
         <v>30</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="6">
         <f>J31-M31</f>
         <v/>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q31" s="6">
         <f>J31-N31</f>
         <v/>
       </c>
-      <c r="R31" s="4">
+      <c r="R31" s="6">
         <f>J31-O31</f>
         <v/>
       </c>
@@ -2747,15 +2748,15 @@
       <c r="O32" t="n">
         <v>30</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32" s="6">
         <f>J32-M32</f>
         <v/>
       </c>
-      <c r="Q32" s="4">
+      <c r="Q32" s="6">
         <f>J32-N32</f>
         <v/>
       </c>
-      <c r="R32" s="4">
+      <c r="R32" s="6">
         <f>J32-O32</f>
         <v/>
       </c>
@@ -2819,15 +2820,15 @@
       <c r="O33" t="n">
         <v>30</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="6">
         <f>J33-M33</f>
         <v/>
       </c>
-      <c r="Q33" s="4">
+      <c r="Q33" s="6">
         <f>J33-N33</f>
         <v/>
       </c>
-      <c r="R33" s="4">
+      <c r="R33" s="6">
         <f>J33-O33</f>
         <v/>
       </c>
@@ -2891,15 +2892,15 @@
       <c r="O34" t="n">
         <v>30</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P34" s="6">
         <f>J34-M34</f>
         <v/>
       </c>
-      <c r="Q34" s="4">
+      <c r="Q34" s="6">
         <f>J34-N34</f>
         <v/>
       </c>
-      <c r="R34" s="4">
+      <c r="R34" s="6">
         <f>J34-O34</f>
         <v/>
       </c>
@@ -2963,15 +2964,15 @@
       <c r="O35" t="n">
         <v>30</v>
       </c>
-      <c r="P35" s="4">
+      <c r="P35" s="6">
         <f>J35-M35</f>
         <v/>
       </c>
-      <c r="Q35" s="4">
+      <c r="Q35" s="6">
         <f>J35-N35</f>
         <v/>
       </c>
-      <c r="R35" s="4">
+      <c r="R35" s="6">
         <f>J35-O35</f>
         <v/>
       </c>
@@ -3035,15 +3036,15 @@
       <c r="O36" t="n">
         <v>30</v>
       </c>
-      <c r="P36" s="4">
+      <c r="P36" s="6">
         <f>J36-M36</f>
         <v/>
       </c>
-      <c r="Q36" s="4">
+      <c r="Q36" s="6">
         <f>J36-N36</f>
         <v/>
       </c>
-      <c r="R36" s="4">
+      <c r="R36" s="6">
         <f>J36-O36</f>
         <v/>
       </c>
@@ -3107,15 +3108,15 @@
       <c r="O37" t="n">
         <v>30</v>
       </c>
-      <c r="P37" s="4">
+      <c r="P37" s="6">
         <f>J37-M37</f>
         <v/>
       </c>
-      <c r="Q37" s="4">
+      <c r="Q37" s="6">
         <f>J37-N37</f>
         <v/>
       </c>
-      <c r="R37" s="4">
+      <c r="R37" s="6">
         <f>J37-O37</f>
         <v/>
       </c>
@@ -3179,15 +3180,15 @@
       <c r="O38" t="n">
         <v>30</v>
       </c>
-      <c r="P38" s="4">
+      <c r="P38" s="6">
         <f>J38-M38</f>
         <v/>
       </c>
-      <c r="Q38" s="4">
+      <c r="Q38" s="6">
         <f>J38-N38</f>
         <v/>
       </c>
-      <c r="R38" s="4">
+      <c r="R38" s="6">
         <f>J38-O38</f>
         <v/>
       </c>
@@ -3251,15 +3252,15 @@
       <c r="O39" t="n">
         <v>30</v>
       </c>
-      <c r="P39" s="4">
+      <c r="P39" s="6">
         <f>J39-M39</f>
         <v/>
       </c>
-      <c r="Q39" s="4">
+      <c r="Q39" s="6">
         <f>J39-N39</f>
         <v/>
       </c>
-      <c r="R39" s="4">
+      <c r="R39" s="6">
         <f>J39-O39</f>
         <v/>
       </c>
@@ -3323,15 +3324,15 @@
       <c r="O40" t="n">
         <v>30</v>
       </c>
-      <c r="P40" s="4">
+      <c r="P40" s="6">
         <f>J40-M40</f>
         <v/>
       </c>
-      <c r="Q40" s="4">
+      <c r="Q40" s="6">
         <f>J40-N40</f>
         <v/>
       </c>
-      <c r="R40" s="4">
+      <c r="R40" s="6">
         <f>J40-O40</f>
         <v/>
       </c>
@@ -3395,15 +3396,15 @@
       <c r="O41" t="n">
         <v>30</v>
       </c>
-      <c r="P41" s="4">
+      <c r="P41" s="6">
         <f>J41-M41</f>
         <v/>
       </c>
-      <c r="Q41" s="4">
+      <c r="Q41" s="6">
         <f>J41-N41</f>
         <v/>
       </c>
-      <c r="R41" s="4">
+      <c r="R41" s="6">
         <f>J41-O41</f>
         <v/>
       </c>
@@ -3467,15 +3468,15 @@
       <c r="O42" t="n">
         <v>30</v>
       </c>
-      <c r="P42" s="4">
+      <c r="P42" s="6">
         <f>J42-M42</f>
         <v/>
       </c>
-      <c r="Q42" s="4">
+      <c r="Q42" s="6">
         <f>J42-N42</f>
         <v/>
       </c>
-      <c r="R42" s="4">
+      <c r="R42" s="6">
         <f>J42-O42</f>
         <v/>
       </c>
@@ -3539,15 +3540,15 @@
       <c r="O43" t="n">
         <v>30</v>
       </c>
-      <c r="P43" s="4">
+      <c r="P43" s="6">
         <f>J43-M43</f>
         <v/>
       </c>
-      <c r="Q43" s="4">
+      <c r="Q43" s="6">
         <f>J43-N43</f>
         <v/>
       </c>
-      <c r="R43" s="4">
+      <c r="R43" s="6">
         <f>J43-O43</f>
         <v/>
       </c>
@@ -3611,15 +3612,15 @@
       <c r="O44" t="n">
         <v>30</v>
       </c>
-      <c r="P44" s="4">
+      <c r="P44" s="6">
         <f>J44-M44</f>
         <v/>
       </c>
-      <c r="Q44" s="4">
+      <c r="Q44" s="6">
         <f>J44-N44</f>
         <v/>
       </c>
-      <c r="R44" s="4">
+      <c r="R44" s="6">
         <f>J44-O44</f>
         <v/>
       </c>
@@ -3683,15 +3684,15 @@
       <c r="O45" t="n">
         <v>30</v>
       </c>
-      <c r="P45" s="4">
+      <c r="P45" s="6">
         <f>J45-M45</f>
         <v/>
       </c>
-      <c r="Q45" s="4">
+      <c r="Q45" s="6">
         <f>J45-N45</f>
         <v/>
       </c>
-      <c r="R45" s="4">
+      <c r="R45" s="6">
         <f>J45-O45</f>
         <v/>
       </c>
@@ -3755,15 +3756,15 @@
       <c r="O46" t="n">
         <v>30</v>
       </c>
-      <c r="P46" s="4">
+      <c r="P46" s="6">
         <f>J46-M46</f>
         <v/>
       </c>
-      <c r="Q46" s="4">
+      <c r="Q46" s="6">
         <f>J46-N46</f>
         <v/>
       </c>
-      <c r="R46" s="4">
+      <c r="R46" s="6">
         <f>J46-O46</f>
         <v/>
       </c>
@@ -3824,15 +3825,15 @@
       <c r="O47" t="n">
         <v>30</v>
       </c>
-      <c r="P47" s="4">
+      <c r="P47" s="6">
         <f>J47-M47</f>
         <v/>
       </c>
-      <c r="Q47" s="4">
+      <c r="Q47" s="6">
         <f>J47-N47</f>
         <v/>
       </c>
-      <c r="R47" s="4">
+      <c r="R47" s="6">
         <f>J47-O47</f>
         <v/>
       </c>
@@ -3871,7 +3872,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>特定技能3号ロ</t>
+          <t>技能実習3号ロ</t>
         </is>
       </c>
       <c r="I48" s="5" t="n">
@@ -3893,16 +3894,85 @@
       <c r="O48" t="n">
         <v>30</v>
       </c>
-      <c r="P48" s="4">
+      <c r="P48" s="6">
         <f>J48-M48</f>
         <v/>
       </c>
-      <c r="Q48" s="4">
+      <c r="Q48" s="6">
         <f>J48-N48</f>
         <v/>
       </c>
-      <c r="R48" s="4">
+      <c r="R48" s="6">
         <f>J48-O48</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>xxxx</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>xxxxxxxx</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>CCCCCC333333</t>
+        </is>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>34094</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>フィリピン</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>4期</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>技能実習2号</t>
+        </is>
+      </c>
+      <c r="I49" s="5" t="n">
+        <v>45240</v>
+      </c>
+      <c r="J49" s="5" t="n">
+        <v>45971</v>
+      </c>
+      <c r="L49">
+        <f>IF(OR(J49="",I49=""),"",IF(OR(LEFT(H49,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H49)),OR(ISNUMBER(SEARCH("2号",H49)),ISNUMBER(SEARCH("２号",H49))))),"",IF(K49="","",K49+(J49-I49+1))))</f>
+        <v/>
+      </c>
+      <c r="M49" t="n">
+        <v>90</v>
+      </c>
+      <c r="N49" t="n">
+        <v>60</v>
+      </c>
+      <c r="O49" t="n">
+        <v>30</v>
+      </c>
+      <c r="P49" s="6">
+        <f>J49-M49</f>
+        <v/>
+      </c>
+      <c r="Q49" s="6">
+        <f>J49-N49</f>
+        <v/>
+      </c>
+      <c r="R49" s="6">
+        <f>J49-O49</f>
         <v/>
       </c>
     </row>
